--- a/document/长客每日作业计划单2018-11-3（白)  1.xlsx
+++ b/document/长客每日作业计划单2018-11-3（白)  1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
   <si>
     <t xml:space="preserve">长客售后服务站每日作业计划单</t>
   </si>
@@ -37,10 +37,53 @@
     <t xml:space="preserve">动车所批复内容</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-11-3(白）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审批人:李毅忱</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-11-3(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">白）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">审批人</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">李毅忱</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">序号</t>
@@ -86,88 +129,670 @@
     <t xml:space="preserve">监控普查</t>
   </si>
   <si>
-    <t xml:space="preserve">Q30接触器普查</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Q30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">接触器普查</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无电</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长客</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金元庆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15948383505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据分析室跟踪 质检确认</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技术改造</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">QRK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">电气柜垃圾箱扣盖整改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-10</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地勤班组跟踪 质检确认</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组带电触点塞门电器盒打胶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH5G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">QCA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">柜增加防护罩</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CHR5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Z29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">止回阀无螺纹管接件松脱售后问题处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-13</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">2018-11-26</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无电</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">长客</t>
-  </si>
-  <si>
-    <t xml:space="preserve">金元庆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15948383505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据分析室跟踪 质检确认</t>
-  </si>
-  <si>
-    <t xml:space="preserve">技术改造</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRH5型动车组QRK电气柜垃圾箱扣盖整改2018-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地勤班组跟踪 质检确认</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRH380型动车组带电触点塞门电器盒打胶2018-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRH5G型动车组MC车QCA柜增加防护罩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR5型动车组Z29止回阀无螺纹管接件松脱售后问题处理2018-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">15:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">地勤班组 质检跟踪</t>
   </si>
   <si>
-    <t xml:space="preserve">关于CRH5型动车组取消牵引辅助变流器接地开关罩板的函的执行申请（2018-2）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRH5A型动车组项目-MC01/M02/MH04/M07/MC08-牵引辅助变流器整流、逆变功率模块IGBT批次质量问题的整治方案2018-7</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组取消牵引辅助变流器接地开关罩板的函的执行申请（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH5A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-MC01/M02/MH04/M07/MC08-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">牵引辅助变流器整流、逆变功率模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">IGBT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">批次质量问题的整治方案</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-7</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">数据分析室 质检跟踪</t>
   </si>
   <si>
-    <t xml:space="preserve">CRH5A型动车组项目-3.5.6车-内装系统-二位端平顶板增加安全绳2018-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">填写说明:
-1.长客部分中“作业类型”填写:技术改造、软件升级、临时作业或故障处理。
-2.长客部分中“计划时间”填写:    点      分 至     点      分。
-3.长客部分中“作业辅助事项”填写:作业中需要进行的其他辅助作业条件，如:拆卸底板或裙板。
-4.长客部分中“执行单位”填写:长客或者其他协作单位名称。
-5.长客部分中“作业内容”填写:具体车号开展具体什么内容的作业。
-6.动车所部分中“技术意见”填写:同意或不同意。如同意，要写清楚该项作业中班组、质检员、卡控干部的卡控及配合方式，其中卡控干部要写清楚姓名。如不同意写清原因。</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CRH5A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">型动车组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-3.5.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">内装系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">二位端平顶板增加安全绳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2018-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">填写说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客部分中“作业类型”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">技术改造、软件升级、临时作业或故障处理。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客部分中“计划时间”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">点      分 至     点      分。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客部分中“作业辅助事项”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">作业中需要进行的其他辅助作业条件，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">拆卸底板或裙板。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客部分中“执行单位”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客或者其他协作单位名称。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">长客部分中“作业内容”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">具体车号开展具体什么内容的作业。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">动车所部分中“技术意见”填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">同意或不同意。如同意，要写清楚该项作业中班组、质检员、卡控干部的卡控及配合方式，其中卡控干部要写清楚姓名。如不同意写清原因。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -181,28 +806,41 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="YYYY\年M\月D\日"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -214,10 +852,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -295,7 +932,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -328,7 +965,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,15 +989,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,7 +1021,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,12 +1031,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -399,28 +1052,28 @@
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="18.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="261" min="15" style="1" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="262" style="0" width="7.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="261" min="15" style="1" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="262" style="0" width="9.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -524,28 +1177,28 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" s="7" customFormat="true" ht="117.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="14" t="n">
         <v>5695</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="16" t="n">
         <v>0.479166666666667</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -557,10 +1210,10 @@
       <c r="K5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="10" t="s">
@@ -568,28 +1221,28 @@
       </c>
     </row>
     <row r="6" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -601,10 +1254,10 @@
       <c r="K6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -612,28 +1265,28 @@
       </c>
     </row>
     <row r="7" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="14" t="n">
         <v>5695</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="16" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -645,10 +1298,10 @@
       <c r="K7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -656,28 +1309,28 @@
       </c>
     </row>
     <row r="8" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="14" t="n">
         <v>5557</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="16" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -689,10 +1342,10 @@
       <c r="K8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -700,28 +1353,28 @@
       </c>
     </row>
     <row r="9" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -733,10 +1386,10 @@
       <c r="K9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="10" t="s">
@@ -744,29 +1397,29 @@
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B10" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
+      <c r="H10" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -777,39 +1430,39 @@
       <c r="K10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -821,10 +1474,10 @@
       <c r="K11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="10" t="s">
@@ -832,28 +1485,28 @@
       </c>
     </row>
     <row r="12" s="7" customFormat="true" ht="176.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B12" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="16" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="10" t="s">
@@ -865,77 +1518,77 @@
       <c r="K12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" s="7" customFormat="true" ht="92.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="14" t="n">
         <v>5159</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="A14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:N14"/>
@@ -972,8 +1625,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="19" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="7.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="23" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="9.01"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -999,8 +1652,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="19" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="7.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="1" style="23" width="9.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="9.01"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
